--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269452.5298642193</v>
+        <v>282775.9928542395</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="D4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.412907433674</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.412907433674</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.412907433674</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="E6" t="n">
-        <v>-65757.31268951681</v>
+        <v>-64457.11655035137</v>
       </c>
       <c r="F6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="G6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="H6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="I6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="J6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="K6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="L6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="M6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="N6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="O6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
       <c r="P6" t="n">
-        <v>67342.68731048325</v>
+        <v>68642.88344964864</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282775.9928542395</v>
+        <v>296502.3509916575</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26322,40 @@
         <v>112882.7758080187</v>
       </c>
       <c r="E2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="F2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="G2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="H2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="I2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="J2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="K2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="L2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="M2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="N2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="O2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
       <c r="P2" t="n">
-        <v>120036.5755573568</v>
+        <v>120036.5755573567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E4" t="n">
         <v>47782.0800026998</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-1375.378340566087</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-1375.378340566072</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-1375.378340566087</v>
       </c>
       <c r="E6" t="n">
-        <v>-64457.11655035137</v>
+        <v>-64457.11655035144</v>
       </c>
       <c r="F6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="G6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="H6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="I6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="J6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="K6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="L6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="M6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="N6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="O6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
       <c r="P6" t="n">
-        <v>68642.88344964864</v>
+        <v>68642.88344964862</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296502.3509916575</v>
+        <v>171392.4521941809</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566087</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566072</v>
+        <v>-16526.05231060082</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566087</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="E6" t="n">
-        <v>-64457.11655035144</v>
+        <v>-79267.13338946535</v>
       </c>
       <c r="F6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="G6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="H6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="I6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="J6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="K6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="L6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="M6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="N6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="O6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
       <c r="P6" t="n">
-        <v>68642.88344964862</v>
+        <v>53832.86661053472</v>
       </c>
     </row>
   </sheetData>
